--- a/idea.xlsx
+++ b/idea.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690">
   <si>
     <t>需求</t>
   </si>
@@ -635,6 +635,21 @@
   </si>
   <si>
     <t>提供真实的价值/解决真正的问题</t>
+  </si>
+  <si>
+    <t>是否有可实现性</t>
+  </si>
+  <si>
+    <t>不需要技术都可以实现</t>
+  </si>
+  <si>
+    <t>是否能树立门槛</t>
+  </si>
+  <si>
+    <t>用户留存度</t>
+  </si>
+  <si>
+    <t>产品运营的竞争优势</t>
   </si>
   <si>
     <t>加粉、转发、偷师、图文结合</t>
@@ -2406,11 +2421,11 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3266,46 +3281,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3313,18 +3328,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3332,58 +3347,58 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
       <c r="G9" s="11" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
@@ -3391,56 +3406,56 @@
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>91</v>
@@ -3448,13 +3463,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -3464,56 +3479,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -3522,16 +3537,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -3543,17 +3558,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -3567,20 +3582,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="S35" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3595,7 +3610,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -3609,7 +3624,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -3630,13 +3645,13 @@
     <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3644,7 +3659,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3656,13 +3671,13 @@
     <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -3670,7 +3685,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3682,13 +3697,13 @@
     <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -3698,7 +3713,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -3714,13 +3729,13 @@
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L47" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -3728,13 +3743,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -3745,153 +3760,153 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K50" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B59" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C59" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D59" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B60" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C60" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D60" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E60" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F60" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F61" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C62" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F62"/>
     </row>
     <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B63" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F63"/>
     </row>
     <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B64" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
@@ -3908,15 +3923,15 @@
     </row>
     <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -3945,107 +3960,107 @@
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="J5" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K5" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J6" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="J7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D8" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="J8" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4053,95 +4068,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="J15" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K15" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="D17" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K17" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C19" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C21" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H24" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H25" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="D29" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -4164,22 +4179,22 @@
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4294,653 +4309,653 @@
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I4" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="J6" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I9" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="J10" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="J11" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K11" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="I13" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="J13" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C15" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="I15" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D20" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E20" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B25" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D27" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="C28" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="D28" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D29" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D30" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C31" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D31" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D32" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E33" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B46" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C46" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D46" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F46" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G46" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H46" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="J46" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="F47" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K47" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G48" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K48" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L48" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G49" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K49" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G50" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K50" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="L50" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G51" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K51" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K52" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G53" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K53" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="L53" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M53" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="K54" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="D55" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="G55" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="K55" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G56" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="K56" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G57" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="K57" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C58" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G58" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K58" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C59" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G59" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="K59" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L59" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="M59" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="N59" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G60" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L60" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M60" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="N60" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="G61" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="K61" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="L61" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B62" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C62" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D62" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E62" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F62" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="G62" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="D63" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="G63" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="K63" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B64" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C64" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="G64" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="C65" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="G65" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K65" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="L65" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="M65" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="N65" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C66" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="K66" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C67" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="K68" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K69" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="K70" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C72" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C73" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="C76" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4966,354 +4981,354 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="B4" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Q9" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="R9" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="S9" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="L10" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="M10" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="P10" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="Q10" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="S10" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="L11" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="M11" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="M12" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="N12" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="N13" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="O13" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B15" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="L15" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="N15" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B16" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C16" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="N16" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="P16" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="K18" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="P21" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="Q21" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="G29" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="I36" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="H41" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="I41" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="I44" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="H48" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B50" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="G50" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="H50" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B53" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="G56" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="H56" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="D61" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -5336,12 +5351,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -5354,10 +5369,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5614,51 +5629,51 @@
       </c>
     </row>
     <row r="33" ht="36" spans="11:15">
-      <c r="K33" s="28" t="s">
+      <c r="K33" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
     </row>
     <row r="34" ht="36" spans="11:15">
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
     </row>
     <row r="35" ht="36" spans="11:15">
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
     </row>
     <row r="36" ht="36" spans="11:15">
-      <c r="K36" s="28" t="s">
+      <c r="K36" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
     </row>
     <row r="37" ht="120.75" spans="11:15">
-      <c r="K37" s="28" t="s">
+      <c r="K37" s="29" t="s">
         <v>175</v>
       </c>
       <c r="L37" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
     </row>
     <row r="38" ht="17.25" spans="4:11">
       <c r="D38" t="s">
@@ -5750,17 +5765,99 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="50" ht="27" spans="1:4">
+      <c r="A50" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="28" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+    </row>
+    <row r="51" ht="54" spans="1:4">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28" t="s">
         <v>201</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+    </row>
+    <row r="54" ht="40.5" spans="1:4">
+      <c r="A54" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5783,147 +5880,147 @@
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="J32" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5946,36 +6043,36 @@
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -5998,15 +6095,15 @@
   <sheetData>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -6014,7 +6111,7 @@
     </row>
     <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -6022,20 +6119,20 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -6043,7 +6140,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6051,7 +6148,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -6059,12 +6156,12 @@
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -6072,7 +6169,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -6080,7 +6177,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -6143,7 +6240,7 @@
   <sheetData>
     <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6169,30 +6266,30 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -6217,12 +6314,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6232,12 +6329,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -6245,44 +6342,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H33" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="J37" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J40" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/idea.xlsx
+++ b/idea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="818" activeTab="1"/>
+    <workbookView windowWidth="22968" windowHeight="10152" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693">
   <si>
     <t>需求</t>
   </si>
@@ -790,6 +790,15 @@
   </si>
   <si>
     <t>小门面开店</t>
+  </si>
+  <si>
+    <t>难点</t>
+  </si>
+  <si>
+    <t>旅游小锦囊</t>
+  </si>
+  <si>
+    <t>痛点基本被已有的旅游网站解决</t>
   </si>
   <si>
     <t>第一个月</t>
@@ -2141,10 +2150,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2779,16 +2788,16 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="27.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2971,7 +2980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:11">
+    <row r="16" ht="15.6" spans="1:11">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:11">
+    <row r="17" spans="2:11">
       <c r="B17" s="33" t="s">
         <v>47</v>
       </c>
@@ -2996,7 +3005,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="2:11">
+    <row r="18" ht="15.6" spans="2:11">
       <c r="B18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3270,10 +3279,10 @@
       <selection activeCell="B33" sqref="B33:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="27.875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.8796296296296" style="11" customWidth="1"/>
     <col min="5" max="10" width="9" style="11"/>
     <col min="11" max="11" width="21.5" style="11" customWidth="1"/>
     <col min="12" max="16384" width="9" style="11"/>
@@ -3281,46 +3290,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3328,18 +3337,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3347,23 +3356,23 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
       <c r="G9" s="11" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>233</v>
@@ -3371,91 +3380,91 @@
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" ht="22.2" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="22.2" spans="1:14">
       <c r="A14" s="13">
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>91</v>
@@ -3463,13 +3472,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -3479,7 +3488,7 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
@@ -3487,48 +3496,48 @@
         <v>236</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -3537,16 +3546,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N33" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="O33" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P33" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -3558,17 +3567,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -3582,20 +3591,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="S35" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3610,7 +3619,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -3642,16 +3651,16 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="41" ht="18.75" spans="2:13">
+    <row r="41" ht="17.4" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3659,7 +3668,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3668,16 +3677,16 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" ht="37.5" spans="2:13">
+    <row r="43" ht="34.8" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -3685,7 +3694,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3694,16 +3703,16 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" ht="37.5" spans="2:13">
+    <row r="45" ht="34.8" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -3713,7 +3722,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -3722,20 +3731,20 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" ht="37.5" spans="2:13">
+    <row r="47" ht="34.8" spans="2:13">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L47" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -3743,13 +3752,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -3760,160 +3769,160 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K50" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="56" ht="17.25" spans="1:1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" ht="17.4" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" spans="1:6">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" ht="14.4" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C59" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D59" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" spans="1:6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="60" ht="14.4" spans="1:6">
       <c r="A60" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B60" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C60" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D60" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E60" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" spans="1:6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" ht="14.4" spans="1:6">
       <c r="A61" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F61" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" spans="1:6">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="62" ht="14.4" spans="1:6">
       <c r="A62" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B62" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C62" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F62"/>
     </row>
-    <row r="63" ht="13.5" spans="1:6">
+    <row r="63" ht="14.4" spans="1:6">
       <c r="A63" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B63" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F63"/>
     </row>
-    <row r="64" ht="13.5" spans="1:6">
+    <row r="64" ht="14.4" spans="1:6">
       <c r="A64" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B64" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" ht="13.5" spans="1:6">
+    <row r="65" ht="14.4" spans="1:6">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3921,17 +3930,17 @@
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="67" ht="17.25" spans="1:1">
+    <row r="67" ht="17.4" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" ht="293.25" spans="1:2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" ht="400.2" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -3953,114 +3962,114 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K5" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="J6" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="J7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D8" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J8" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D12" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4068,95 +4077,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="J15" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K15" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D17" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K17" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C21" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="H24" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:4">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D29" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -4175,26 +4184,26 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -4213,13 +4222,13 @@
       <selection activeCell="B36" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="30.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:2">
+    <row r="1" ht="15.6" spans="2:2">
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="2:2">
@@ -4261,7 +4270,7 @@
     <row r="70" spans="2:2">
       <c r="B70" s="1"/>
     </row>
-    <row r="100" ht="17.25" spans="14:14">
+    <row r="100" ht="17.4" spans="14:14">
       <c r="N100" s="6"/>
     </row>
     <row r="113" spans="9:9">
@@ -4279,7 +4288,7 @@
     <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="164" ht="14.25" spans="3:4">
+    <row r="164" spans="3:4">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
     </row>
@@ -4302,660 +4311,660 @@
       <selection activeCell="I1" sqref="I1:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="I4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="J6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="I9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="J10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J11" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K11" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C13" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="I13" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="J13" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C15" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="I15" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D20" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E20" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B25" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C27" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D27" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C28" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D28" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D29" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D30" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C31" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D31" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D32" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="E33" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B46" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C46" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D46" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E46" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F46" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="G46" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="H46" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="J46" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F47" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K47" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C48" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G48" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="K48" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="L48" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G49" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="K49" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G50" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K50" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L50" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="G51" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="K51" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K52" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G53" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K53" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L53" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M53" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K54" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D55" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G55" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="K55" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G56" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K56" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G57" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K57" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C58" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G58" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K58" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C59" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G59" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K59" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L59" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M59" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="N59" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G60" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L60" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M60" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="N60" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="G61" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="K61" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L61" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B62" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C62" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="D62" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E62" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="F62" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="G62" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D63" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G63" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K63" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B64" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C64" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="G64" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C65" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G65" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="K65" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L65" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="M65" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="N65" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C66" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K66" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C67" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K68" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="K69" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K70" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C72" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C73" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C76" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -4974,361 +4983,361 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B4" t="s">
         <v>611</v>
-      </c>
-      <c r="B4" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q9" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="R9" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="S9" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="L10" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="M10" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="P10" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Q10" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="S10" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="L11" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M11" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="M12" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N12" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="N13" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="O13" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B15" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="L15" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="N15" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B16" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C16" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="N16" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="P16" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="K18" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="P21" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="Q21" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G29" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="I36" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="H41" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="I41" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="I44" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="H48" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B50" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G50" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H50" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B53" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G56" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H56" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D61" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -5347,16 +5356,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -5371,14 +5380,14 @@
   <sheetPr/>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.375" customWidth="1"/>
+    <col min="12" max="12" width="23.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5552,7 +5561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="12:15">
+    <row r="24" ht="15.6" spans="12:15">
       <c r="L24" s="11" t="s">
         <v>152</v>
       </c>
@@ -5566,7 +5575,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="8:15">
+    <row r="25" ht="15.6" spans="8:15">
       <c r="H25" t="s">
         <v>156</v>
       </c>
@@ -5580,7 +5589,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" ht="14.25" spans="12:14">
+    <row r="26" ht="15.6" spans="12:14">
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
         <v>159</v>
@@ -5589,7 +5598,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" ht="14.25" spans="1:14">
+    <row r="27" ht="15.6" spans="1:14">
       <c r="A27" t="s">
         <v>161</v>
       </c>
@@ -5628,7 +5637,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" ht="36" spans="11:15">
+    <row r="33" ht="34.8" spans="11:15">
       <c r="K33" s="29" t="s">
         <v>171</v>
       </c>
@@ -5637,7 +5646,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
     </row>
-    <row r="34" ht="36" spans="11:15">
+    <row r="34" ht="34.8" spans="11:15">
       <c r="K34" s="29" t="s">
         <v>172</v>
       </c>
@@ -5646,7 +5655,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
     </row>
-    <row r="35" ht="36" spans="11:15">
+    <row r="35" ht="34.8" spans="11:15">
       <c r="K35" s="29" t="s">
         <v>173</v>
       </c>
@@ -5655,7 +5664,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" ht="36" spans="11:15">
+    <row r="36" ht="52.2" spans="11:15">
       <c r="K36" s="29" t="s">
         <v>174</v>
       </c>
@@ -5664,7 +5673,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
     </row>
-    <row r="37" ht="120.75" spans="11:15">
+    <row r="37" ht="121.8" spans="11:15">
       <c r="K37" s="29" t="s">
         <v>175</v>
       </c>
@@ -5675,7 +5684,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
     </row>
-    <row r="38" ht="17.25" spans="4:11">
+    <row r="38" ht="17.4" spans="4:11">
       <c r="D38" t="s">
         <v>177</v>
       </c>
@@ -5747,7 +5756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" ht="36.75" spans="8:11">
+    <row r="47" ht="46.2" spans="8:11">
       <c r="H47" t="s">
         <v>195</v>
       </c>
@@ -5755,17 +5764,17 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" ht="48.75" spans="11:11">
+    <row r="48" ht="46.2" spans="11:11">
       <c r="K48" s="31" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" ht="61.5" spans="11:11">
+    <row r="49" ht="69.6" spans="11:11">
       <c r="K49" s="31" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:4">
+    <row r="50" ht="28.8" spans="1:4">
       <c r="A50" s="28" t="s">
         <v>199</v>
       </c>
@@ -5775,7 +5784,7 @@
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
     </row>
-    <row r="51" ht="54" spans="1:4">
+    <row r="51" ht="57.6" spans="1:4">
       <c r="A51" s="28"/>
       <c r="B51" s="28" t="s">
         <v>201</v>
@@ -5795,7 +5804,7 @@
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
     </row>
-    <row r="54" ht="40.5" spans="1:4">
+    <row r="54" ht="43.2" spans="1:4">
       <c r="A54" s="28" t="s">
         <v>202</v>
       </c>
@@ -5876,7 +5885,7 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
@@ -5933,12 +5942,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" ht="15.75" spans="3:3">
+    <row r="17" ht="16.8" spans="3:3">
       <c r="C17" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" ht="17.25" spans="3:12">
+    <row r="18" ht="17.4" spans="3:12">
       <c r="C18" s="14" t="s">
         <v>221</v>
       </c>
@@ -5946,7 +5955,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="3:13">
+    <row r="19" ht="16.8" spans="3:13">
       <c r="C19" s="21" t="s">
         <v>223</v>
       </c>
@@ -5962,7 +5971,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="3:3">
+    <row r="21" ht="16.8" spans="3:3">
       <c r="C21" s="21" t="s">
         <v>227</v>
       </c>
@@ -5977,12 +5986,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" ht="15.75" spans="7:7">
+    <row r="25" ht="16.8" spans="7:7">
       <c r="G25" s="22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="26" ht="15.75" spans="7:7">
+    <row r="26" ht="16.8" spans="7:7">
       <c r="G26" s="22" t="s">
         <v>231</v>
       </c>
@@ -6013,12 +6022,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" ht="18" spans="3:3">
+    <row r="39" ht="17.4" spans="3:3">
       <c r="C39" s="25" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="40" ht="17.25" spans="3:3">
+    <row r="40" ht="17.4" spans="3:3">
       <c r="C40" s="25" t="s">
         <v>239</v>
       </c>
@@ -6033,13 +6042,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:C11"/>
+  <dimension ref="B4:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="32.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
@@ -6073,6 +6085,19 @@
     <row r="11" spans="3:3">
       <c r="C11" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -6091,19 +6116,19 @@
       <selection activeCell="N8" sqref="H2:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -6111,7 +6136,7 @@
     </row>
     <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -6119,20 +6144,20 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -6140,7 +6165,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6148,7 +6173,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -6156,12 +6181,12 @@
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -6169,7 +6194,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -6177,7 +6202,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -6199,7 +6224,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6216,7 +6241,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6233,14 +6258,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="72" spans="1:1">
+    <row r="3" ht="69.6" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6259,37 +6284,37 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="49.125" customWidth="1"/>
+    <col min="8" max="8" width="49.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -6314,12 +6339,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6329,12 +6354,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -6342,44 +6367,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H33" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J37" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/idea.xlsx
+++ b/idea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22968" windowHeight="10152" tabRatio="818" activeTab="3"/>
+    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694">
   <si>
     <t>需求</t>
   </si>
@@ -799,6 +799,9 @@
   </si>
   <si>
     <t>痛点基本被已有的旅游网站解决</t>
+  </si>
+  <si>
+    <t>建材装修宝典</t>
   </si>
   <si>
     <t>第一个月</t>
@@ -2151,9 +2154,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2792,12 +2795,12 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="27.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="27.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2980,7 +2983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:11">
+    <row r="16" ht="16.5" spans="1:11">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2994,7 +2997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" ht="14.25" spans="2:11">
       <c r="B17" s="33" t="s">
         <v>47</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="2:11">
+    <row r="18" ht="16.5" spans="2:11">
       <c r="B18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3279,10 +3282,10 @@
       <selection activeCell="B33" sqref="B33:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="27.8796296296296" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.8833333333333" style="11" customWidth="1"/>
     <col min="5" max="10" width="9" style="11"/>
     <col min="11" max="11" width="21.5" style="11" customWidth="1"/>
     <col min="12" max="16384" width="9" style="11"/>
@@ -3290,46 +3293,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3337,18 +3340,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3356,23 +3359,23 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
       <c r="G9" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>233</v>
@@ -3380,91 +3383,91 @@
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" s="11" customFormat="1" ht="22.2" spans="4:14">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="22.2" spans="1:14">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
       <c r="A14" s="13">
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>91</v>
@@ -3472,13 +3475,13 @@
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -3488,7 +3491,7 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
@@ -3496,48 +3499,48 @@
         <v>236</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -3546,16 +3549,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N33" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="O33" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -3567,17 +3570,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -3591,20 +3594,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3619,7 +3622,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -3651,16 +3654,16 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="41" ht="17.4" spans="2:13">
+    <row r="41" ht="18.75" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3668,7 +3671,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3677,16 +3680,16 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" ht="34.8" spans="2:13">
+    <row r="43" ht="37.5" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -3694,7 +3697,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3703,16 +3706,16 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" ht="34.8" spans="2:13">
+    <row r="45" ht="37.5" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -3722,7 +3725,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -3731,20 +3734,20 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" ht="34.8" spans="2:13">
+    <row r="47" ht="37.5" spans="2:13">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -3752,13 +3755,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -3769,160 +3772,160 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K50" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="56" ht="17.4" spans="1:1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="59" ht="14.4" spans="1:6">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C59" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="60" ht="14.4" spans="1:6">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" spans="1:6">
       <c r="A60" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C60" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D60" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E60" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F60" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" ht="14.4" spans="1:6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" spans="1:6">
       <c r="A61" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F61" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="62" ht="14.4" spans="1:6">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" spans="1:6">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B62" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C62" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F62"/>
     </row>
-    <row r="63" ht="14.4" spans="1:6">
+    <row r="63" ht="13.5" spans="1:6">
       <c r="A63" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B63" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F63"/>
     </row>
-    <row r="64" ht="14.4" spans="1:6">
+    <row r="64" ht="13.5" spans="1:6">
       <c r="A64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" ht="14.4" spans="1:6">
+    <row r="65" ht="13.5" spans="1:6">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3930,17 +3933,17 @@
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="67" ht="17.4" spans="1:1">
+    <row r="67" ht="17.25" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="69" ht="400.2" spans="1:2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="69" ht="293.25" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -3962,114 +3965,114 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J5" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="J8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4077,95 +4080,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C19" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C21" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H24" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
+        <v>438</v>
+      </c>
+      <c r="H25" t="s">
         <v>437</v>
       </c>
-      <c r="H25" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="29" ht="15.6" spans="1:4">
+    </row>
+    <row r="29" ht="17.25" spans="1:4">
       <c r="A29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D29" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4184,26 +4187,26 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -4222,13 +4225,13 @@
       <selection activeCell="B36" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="30.3796296296296" customWidth="1"/>
+    <col min="2" max="2" width="30.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="2:2">
+    <row r="1" ht="14.25" spans="2:2">
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="2:2">
@@ -4270,7 +4273,7 @@
     <row r="70" spans="2:2">
       <c r="B70" s="1"/>
     </row>
-    <row r="100" ht="17.4" spans="14:14">
+    <row r="100" ht="17.25" spans="14:14">
       <c r="N100" s="6"/>
     </row>
     <row r="113" spans="9:9">
@@ -4288,7 +4291,7 @@
     <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="164" spans="3:4">
+    <row r="164" ht="14.25" spans="3:4">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
     </row>
@@ -4311,660 +4314,660 @@
       <selection activeCell="I1" sqref="I1:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="J6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="J11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="J13" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I15" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B25" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C27" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C28" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D28" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D29" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D30" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E33" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B46" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C46" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D46" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E46" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F46" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G46" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H46" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J46" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F47" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K47" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C48" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G48" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K48" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L48" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G49" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K49" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G50" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K50" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L50" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G51" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K51" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K52" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G53" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K53" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L53" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M53" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K54" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D55" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G55" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K55" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G56" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="K56" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G57" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="K57" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C58" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G58" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K58" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C59" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G59" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K59" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L59" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M59" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N59" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G60" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L60" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M60" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N60" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G61" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K61" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L61" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B62" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C62" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D62" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E62" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F62" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G62" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D63" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G63" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K63" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B64" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C64" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G64" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C65" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G65" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K65" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L65" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M65" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N65" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C66" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K66" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C67" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K68" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K69" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K70" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C72" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C73" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C76" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4983,361 +4986,361 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Q9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="R9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="S9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q10" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="S10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L11" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="M11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M12" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="N13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="O13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B15" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="L15" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N15" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="N16" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="P16" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="K18" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P21" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q21" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G29" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I36" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H41" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I41" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I44" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H48" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B50" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G50" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H50" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B53" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G56" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H56" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D61" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -5356,16 +5359,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -5384,10 +5387,10 @@
       <selection activeCell="H52" sqref="H52:H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.3796296296296" customWidth="1"/>
+    <col min="12" max="12" width="23.3833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -5561,7 +5564,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="12:15">
+    <row r="24" ht="14.25" spans="12:15">
       <c r="L24" s="11" t="s">
         <v>152</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="8:15">
+    <row r="25" ht="14.25" spans="8:15">
       <c r="H25" t="s">
         <v>156</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="12:14">
+    <row r="26" ht="14.25" spans="12:14">
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
         <v>159</v>
@@ -5598,7 +5601,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:14">
+    <row r="27" ht="14.25" spans="1:14">
       <c r="A27" t="s">
         <v>161</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" ht="34.8" spans="11:15">
+    <row r="33" ht="36" spans="11:15">
       <c r="K33" s="29" t="s">
         <v>171</v>
       </c>
@@ -5646,7 +5649,7 @@
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
     </row>
-    <row r="34" ht="34.8" spans="11:15">
+    <row r="34" ht="36" spans="11:15">
       <c r="K34" s="29" t="s">
         <v>172</v>
       </c>
@@ -5655,7 +5658,7 @@
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
     </row>
-    <row r="35" ht="34.8" spans="11:15">
+    <row r="35" ht="36" spans="11:15">
       <c r="K35" s="29" t="s">
         <v>173</v>
       </c>
@@ -5664,7 +5667,7 @@
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" ht="52.2" spans="11:15">
+    <row r="36" ht="36" spans="11:15">
       <c r="K36" s="29" t="s">
         <v>174</v>
       </c>
@@ -5673,7 +5676,7 @@
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
     </row>
-    <row r="37" ht="121.8" spans="11:15">
+    <row r="37" ht="120.75" spans="11:15">
       <c r="K37" s="29" t="s">
         <v>175</v>
       </c>
@@ -5684,7 +5687,7 @@
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
     </row>
-    <row r="38" ht="17.4" spans="4:11">
+    <row r="38" ht="17.25" spans="4:11">
       <c r="D38" t="s">
         <v>177</v>
       </c>
@@ -5756,7 +5759,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="47" ht="46.2" spans="8:11">
+    <row r="47" ht="36.75" spans="8:11">
       <c r="H47" t="s">
         <v>195</v>
       </c>
@@ -5764,17 +5767,17 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" ht="46.2" spans="11:11">
+    <row r="48" ht="48.75" spans="11:11">
       <c r="K48" s="31" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" ht="69.6" spans="11:11">
+    <row r="49" ht="61.5" spans="11:11">
       <c r="K49" s="31" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="50" ht="28.8" spans="1:4">
+    <row r="50" ht="27" spans="1:4">
       <c r="A50" s="28" t="s">
         <v>199</v>
       </c>
@@ -5784,7 +5787,7 @@
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
     </row>
-    <row r="51" ht="57.6" spans="1:4">
+    <row r="51" ht="54" spans="1:4">
       <c r="A51" s="28"/>
       <c r="B51" s="28" t="s">
         <v>201</v>
@@ -5804,7 +5807,7 @@
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
     </row>
-    <row r="54" ht="43.2" spans="1:4">
+    <row r="54" ht="40.5" spans="1:4">
       <c r="A54" s="28" t="s">
         <v>202</v>
       </c>
@@ -5885,7 +5888,7 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
@@ -5942,12 +5945,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" ht="16.8" spans="3:3">
+    <row r="17" ht="15.75" spans="3:3">
       <c r="C17" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" ht="17.4" spans="3:12">
+    <row r="18" ht="17.25" spans="3:12">
       <c r="C18" s="14" t="s">
         <v>221</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" ht="16.8" spans="3:13">
+    <row r="19" ht="15.75" spans="3:13">
       <c r="C19" s="21" t="s">
         <v>223</v>
       </c>
@@ -5971,7 +5974,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" ht="16.8" spans="3:3">
+    <row r="21" ht="15.75" spans="3:3">
       <c r="C21" s="21" t="s">
         <v>227</v>
       </c>
@@ -5986,12 +5989,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="25" ht="16.8" spans="7:7">
+    <row r="25" ht="15.75" spans="7:7">
       <c r="G25" s="22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="26" ht="16.8" spans="7:7">
+    <row r="26" ht="15.75" spans="7:7">
       <c r="G26" s="22" t="s">
         <v>231</v>
       </c>
@@ -6022,12 +6025,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="39" ht="17.4" spans="3:3">
+    <row r="39" ht="18" spans="3:3">
       <c r="C39" s="25" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="40" ht="17.4" spans="3:3">
+    <row r="40" ht="17.25" spans="3:3">
       <c r="C40" s="25" t="s">
         <v>239</v>
       </c>
@@ -6042,15 +6045,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B4:C14"/>
+  <dimension ref="B4:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:E19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="32.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
@@ -6098,6 +6101,11 @@
       </c>
       <c r="C14" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6116,19 +6124,19 @@
       <selection activeCell="N8" sqref="H2:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -6136,7 +6144,7 @@
     </row>
     <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -6144,20 +6152,20 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -6165,7 +6173,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6173,7 +6181,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -6181,12 +6189,12 @@
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -6194,7 +6202,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -6202,7 +6210,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -6224,7 +6232,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6241,7 +6249,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6258,14 +6266,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="69.6" spans="1:1">
+    <row r="3" ht="72" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6284,37 +6292,37 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="49.1296296296296" customWidth="1"/>
+    <col min="8" max="8" width="49.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -6339,12 +6347,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6354,12 +6362,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -6367,44 +6375,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/idea.xlsx
+++ b/idea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="8985" tabRatio="818" activeTab="3"/>
+    <workbookView windowWidth="22968" windowHeight="10164" tabRatio="818"/>
   </bookViews>
   <sheets>
     <sheet name="找方向" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698">
   <si>
     <t>需求</t>
   </si>
@@ -301,13 +301,25 @@
     <t>改装</t>
   </si>
   <si>
+    <t>门户</t>
+  </si>
+  <si>
     <t>旅行工具，飞机，火车资讯</t>
   </si>
   <si>
+    <t>web2.0</t>
+  </si>
+  <si>
     <t>酒店</t>
   </si>
   <si>
     <t>上门服务</t>
+  </si>
+  <si>
+    <t>博客</t>
+  </si>
+  <si>
+    <t>微博</t>
   </si>
   <si>
     <t>k12</t>
@@ -2153,9 +2165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -2791,16 +2803,16 @@
   <sheetPr/>
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="7" max="7" width="27.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2983,7 +2995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:11">
+    <row r="16" ht="15.6" spans="1:11">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:11">
+    <row r="17" spans="2:11">
       <c r="B17" s="33" t="s">
         <v>47</v>
       </c>
@@ -3008,7 +3020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="2:11">
+    <row r="18" ht="15.6" spans="2:11">
       <c r="B18" s="32" t="s">
         <v>50</v>
       </c>
@@ -3166,25 +3178,39 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:9">
       <c r="C35" t="s">
         <v>42</v>
       </c>
       <c r="E35" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
+      <c r="I35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
       <c r="C36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
+        <v>91</v>
+      </c>
+      <c r="I36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
       <c r="C37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3192,36 +3218,36 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="5:6">
       <c r="E41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3229,41 +3255,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3282,10 +3308,10 @@
       <selection activeCell="B33" sqref="B33:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="3" width="9" style="11"/>
-    <col min="4" max="4" width="27.8833333333333" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.8796296296296" style="11" customWidth="1"/>
     <col min="5" max="10" width="9" style="11"/>
     <col min="11" max="11" width="21.5" style="11" customWidth="1"/>
     <col min="12" max="16384" width="9" style="11"/>
@@ -3293,46 +3319,46 @@
   <sheetData>
     <row r="1" s="11" customFormat="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" s="11" customFormat="1" spans="2:10">
       <c r="B2" s="11" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="6:7">
       <c r="F3" s="11" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:15">
       <c r="A4" s="11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" s="11" customFormat="1" spans="5:16">
@@ -3340,18 +3366,18 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E6" s="11">
         <v>1.2</v>
@@ -3359,129 +3385,129 @@
     </row>
     <row r="7" s="11" customFormat="1" spans="7:7">
       <c r="G7" s="11" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="4:12">
       <c r="D8" s="11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E8" s="12">
         <v>0.002</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="7:8">
       <c r="G9" s="11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="8:17">
       <c r="H10" s="11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" s="11" customFormat="1" spans="4:4">
       <c r="D11" s="11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:1">
       <c r="A12" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" s="11" customFormat="1" ht="22.5" spans="4:14">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" s="11" customFormat="1" ht="22.2" spans="4:14">
       <c r="D13" s="11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="1" ht="22.5" spans="1:14">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="22.2" spans="1:14">
       <c r="A14" s="13">
         <v>0.9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" s="11" customFormat="1" spans="7:14">
       <c r="G15" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="5:16">
       <c r="E16" s="11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="16:16">
       <c r="P17" s="11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:16">
       <c r="A18" s="11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:16">
       <c r="A19" s="11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" s="11" customFormat="1" spans="1:13">
       <c r="A20" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="13:13">
@@ -3491,56 +3517,56 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="9:9">
       <c r="I22" s="11" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="5:9">
       <c r="E23" s="11" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="9:9">
       <c r="I24" s="11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="3:3">
       <c r="C27" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="4:12">
       <c r="D28" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="4:8">
       <c r="D29" s="11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="2:19">
@@ -3549,16 +3575,16 @@
       <c r="D33"/>
       <c r="E33"/>
       <c r="M33" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="N33" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="O33" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="P33" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Q33"/>
       <c r="R33"/>
@@ -3570,17 +3596,17 @@
       <c r="D34"/>
       <c r="E34"/>
       <c r="I34" s="11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O34"/>
       <c r="P34"/>
@@ -3594,20 +3620,20 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="J35" s="11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="S35" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -3622,7 +3648,7 @@
       <c r="Q36"/>
       <c r="R36"/>
       <c r="S36" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="13:19">
@@ -3636,7 +3662,7 @@
     </row>
     <row r="38" spans="13:19">
       <c r="M38" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N38"/>
       <c r="O38"/>
@@ -3654,16 +3680,16 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="41" ht="18.75" spans="2:13">
+    <row r="41" ht="17.4" spans="2:13">
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
       <c r="J41"/>
       <c r="K41" s="16" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -3671,7 +3697,7 @@
     <row r="42" spans="2:13">
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -3680,16 +3706,16 @@
       <c r="L42"/>
       <c r="M42"/>
     </row>
-    <row r="43" ht="37.5" spans="2:13">
+    <row r="43" ht="34.8" spans="2:13">
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="J43"/>
       <c r="K43" s="16" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -3697,7 +3723,7 @@
     <row r="44" spans="2:13">
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -3706,16 +3732,16 @@
       <c r="L44"/>
       <c r="M44"/>
     </row>
-    <row r="45" ht="37.5" spans="2:13">
+    <row r="45" ht="34.8" spans="2:13">
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="J45"/>
       <c r="K45" s="16" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L45"/>
       <c r="M45" t="s">
@@ -3725,7 +3751,7 @@
     <row r="46" spans="2:13">
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -3734,20 +3760,20 @@
       <c r="L46"/>
       <c r="M46"/>
     </row>
-    <row r="47" ht="37.5" spans="2:13">
+    <row r="47" ht="34.8" spans="2:13">
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="J47"/>
       <c r="K47" s="16" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L47" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -3755,13 +3781,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="10:13">
@@ -3772,160 +3798,160 @@
     </row>
     <row r="50" spans="10:13">
       <c r="J50" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="K50" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L50"/>
       <c r="M50" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="10:13">
       <c r="J51"/>
       <c r="K51" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L51"/>
       <c r="M51" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="10:13">
       <c r="J52"/>
       <c r="K52" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L52"/>
       <c r="M52" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="10:13">
       <c r="J53"/>
       <c r="K53" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="L53" t="s">
         <v>38</v>
       </c>
       <c r="M53" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="10:13">
       <c r="J54"/>
       <c r="K54" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L54"/>
       <c r="M54" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="56" ht="17.25" spans="1:1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="56" ht="17.4" spans="1:1">
       <c r="A56" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" spans="1:6">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" ht="14.4" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B59" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C59" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D59" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" spans="1:6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60" ht="14.4" spans="1:6">
       <c r="A60" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C60" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D60" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E60" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F60" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" spans="1:6">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" ht="14.4" spans="1:6">
       <c r="A61" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F61" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" spans="1:6">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="62" ht="14.4" spans="1:6">
       <c r="A62" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F62"/>
     </row>
-    <row r="63" ht="13.5" spans="1:6">
+    <row r="63" ht="14.4" spans="1:6">
       <c r="A63" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B63" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F63"/>
     </row>
-    <row r="64" ht="13.5" spans="1:6">
+    <row r="64" ht="14.4" spans="1:6">
       <c r="A64" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B64" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
     </row>
-    <row r="65" ht="13.5" spans="1:6">
+    <row r="65" ht="14.4" spans="1:6">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -3933,17 +3959,17 @@
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="67" ht="17.25" spans="1:1">
+    <row r="67" ht="17.4" spans="1:1">
       <c r="A67" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="69" ht="293.25" spans="1:2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69" ht="400.2" spans="1:2">
       <c r="A69" s="18" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" spans="2:2">
@@ -3965,114 +3991,114 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="14:14">
       <c r="N2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="3:14">
       <c r="C5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="J5" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K5" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J6" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D8" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="J8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4080,95 +4106,95 @@
         <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J15" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K15" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K17" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="11:11">
       <c r="K18" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C19" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C21" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="7:8">
       <c r="G24" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="H24" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="7:8">
       <c r="G25" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="29" ht="17.25" spans="1:4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" ht="15.6" spans="1:4">
       <c r="A29" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D29" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -4187,26 +4213,26 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
     <row r="3" spans="5:5">
       <c r="E3" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4225,13 +4251,13 @@
       <selection activeCell="B36" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="30.3833333333333" customWidth="1"/>
+    <col min="2" max="2" width="30.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:2">
+    <row r="1" ht="15.6" spans="2:2">
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="2:2">
@@ -4273,7 +4299,7 @@
     <row r="70" spans="2:2">
       <c r="B70" s="1"/>
     </row>
-    <row r="100" ht="17.25" spans="14:14">
+    <row r="100" ht="17.4" spans="14:14">
       <c r="N100" s="6"/>
     </row>
     <row r="113" spans="9:9">
@@ -4291,7 +4317,7 @@
     <row r="139" spans="2:2">
       <c r="B139" s="1"/>
     </row>
-    <row r="164" ht="14.25" spans="3:4">
+    <row r="164" spans="3:4">
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
     </row>
@@ -4314,660 +4340,660 @@
       <selection activeCell="I1" sqref="I1:K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="I1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="9:9">
       <c r="I2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="I4" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J6" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="I9" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="9:10">
       <c r="I10" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="J10" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="9:11">
       <c r="I11" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="J11" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K11" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="I13" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="J13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="I15" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="E20" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B25" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C27" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D27" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C28" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D28" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="3:4">
       <c r="C29" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D29" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C31" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D31" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="E33" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B46" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C46" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D46" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E46" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="F46" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="G46" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H46" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="J46" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="F47" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K47" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C48" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G48" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K48" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="L48" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="3:11">
       <c r="C49" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G49" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K49" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G50" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K50" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L50" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G51" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="K51" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="7:11">
       <c r="G52" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K52" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="C53" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G53" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K53" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L53" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M53" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="7:11">
       <c r="G54" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K54" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="3:11">
       <c r="C55" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D55" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G55" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="K55" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="3:11">
       <c r="C56" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G56" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K56" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="57" spans="3:11">
       <c r="C57" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G57" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K57" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C58" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G58" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K58" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="2:14">
       <c r="B59" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C59" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G59" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="K59" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L59" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="M59" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="N59" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="2:14">
       <c r="B60" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="G60" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="L60" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M60" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="N60" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="G61" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K61" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L61" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B62" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C62" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D62" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E62" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F62" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G62" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="3:11">
       <c r="C63" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D63" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G63" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K63" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B64" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C64" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G64" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C65" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="G65" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="K65" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L65" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="M65" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="N65" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C66" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="K66" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C67" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="K68" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" spans="2:11">
       <c r="B69" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="K69" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="K70" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C72" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C73" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C76" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2"/>
       <c r="C77" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -4986,361 +5012,361 @@
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="16:19">
       <c r="P9" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="Q9" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="R9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="S9" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="11:19">
       <c r="K10" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="L10" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="M10" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="P10" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="Q10" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="S10" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L11" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="M11" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="12:14">
       <c r="L12" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="M12" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="N12" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="13:15">
       <c r="M13" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="N13" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="O13" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="15:15">
       <c r="O14" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B15" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="L15" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="N15" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B16" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C16" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="N16" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="P16" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="K18" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="P21" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="Q21" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="G29" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="7:9">
       <c r="G36" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="I36" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="7:7">
       <c r="G38" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="7:7">
       <c r="G39" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="10:10">
       <c r="J40" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="7:9">
       <c r="G41" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="H41" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="I41" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="I44" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="47" spans="7:7">
       <c r="G47" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="48" spans="7:8">
       <c r="G48" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="H48" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B50" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="G50" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="H50" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B53" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="G56" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H56" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="57" spans="7:7">
       <c r="G57" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="3:4">
       <c r="C61" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D61" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -5359,16 +5385,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -5387,410 +5413,410 @@
       <selection activeCell="H52" sqref="H52:H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="23.3833333333333" customWidth="1"/>
+    <col min="12" max="12" width="23.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="3:10">
       <c r="C8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="7:11">
       <c r="G12" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="8:8">
       <c r="H15" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="10:10">
       <c r="J20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="10:10">
       <c r="J21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="12:15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" ht="15.6" spans="12:15">
       <c r="L24" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="8:15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" ht="15.6" spans="8:15">
       <c r="H25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="12:14">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="12:14">
       <c r="L26" s="11"/>
       <c r="M26" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:14">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" ht="15.6" spans="1:14">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" ht="36" spans="11:15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" ht="34.8" spans="11:15">
       <c r="K33" s="29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
     </row>
-    <row r="34" ht="36" spans="11:15">
+    <row r="34" ht="34.8" spans="11:15">
       <c r="K34" s="29" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
     </row>
-    <row r="35" ht="36" spans="11:15">
+    <row r="35" ht="34.8" spans="11:15">
       <c r="K35" s="29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L35" s="28"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" ht="36" spans="11:15">
+    <row r="36" ht="52.2" spans="11:15">
       <c r="K36" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
     </row>
-    <row r="37" ht="120.75" spans="11:15">
+    <row r="37" ht="121.8" spans="11:15">
       <c r="K37" s="29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="L37" s="30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
     </row>
-    <row r="38" ht="17.25" spans="4:11">
+    <row r="38" ht="17.4" spans="4:11">
       <c r="D38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="4:11">
       <c r="D39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J39" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="4:11">
       <c r="D40" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K40" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="5:11">
       <c r="E41" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K41" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="5:11">
       <c r="E42" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K42" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="5:6">
       <c r="E44" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="11:11">
       <c r="K46" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" ht="36.75" spans="8:11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" ht="34.8" spans="8:11">
       <c r="H47" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K47" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" ht="48.75" spans="11:11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" ht="46.2" spans="11:11">
       <c r="K48" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" ht="61.5" spans="11:11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" ht="58.2" spans="11:11">
       <c r="K49" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" ht="27" spans="1:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" ht="28.8" spans="1:4">
       <c r="A50" s="28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
     </row>
-    <row r="51" ht="54" spans="1:4">
+    <row r="51" ht="57.6" spans="1:4">
       <c r="A51" s="28"/>
       <c r="B51" s="28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
@@ -5807,12 +5833,12 @@
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
     </row>
-    <row r="54" ht="40.5" spans="1:4">
+    <row r="54" ht="43.2" spans="1:4">
       <c r="A54" s="28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -5861,15 +5887,15 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5888,151 +5914,151 @@
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="4" spans="1:11">
       <c r="A4" s="20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="11:11">
       <c r="K6" s="20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="20" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="7:11">
       <c r="G13" s="20" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" s="20" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="7:7">
       <c r="G15" s="20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" spans="3:3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" ht="16.8" spans="3:3">
       <c r="C17" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" ht="17.25" spans="3:12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" ht="17.4" spans="3:12">
       <c r="C18" s="14" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" spans="3:13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="3:13">
       <c r="C19" s="21" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" spans="3:3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" ht="16.8" spans="3:3">
       <c r="C21" s="21" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="14:14">
       <c r="N23" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="14:14">
       <c r="N24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" spans="7:7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="7:7">
       <c r="G25" s="22" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="7:7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="7:7">
       <c r="G26" s="22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="24" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="3:10">
       <c r="C32" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J32" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" ht="18" spans="3:3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" ht="17.4" spans="3:3">
       <c r="C39" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" ht="17.25" spans="3:3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" ht="17.4" spans="3:3">
       <c r="C40" s="25" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -6047,65 +6073,65 @@
   <sheetPr/>
   <dimension ref="B4:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="32.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="32.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C14" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -6124,19 +6150,19 @@
       <selection activeCell="N8" sqref="H2:N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -6144,7 +6170,7 @@
     </row>
     <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -6152,20 +6178,20 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" t="s">
         <v>258</v>
-      </c>
-      <c r="D11" t="s">
-        <v>254</v>
       </c>
       <c r="E11">
         <v>70</v>
@@ -6173,7 +6199,7 @@
     </row>
     <row r="12" spans="4:5">
       <c r="D12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -6181,7 +6207,7 @@
     </row>
     <row r="13" spans="4:5">
       <c r="D13" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -6189,12 +6215,12 @@
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="4:5">
       <c r="D16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -6202,7 +6228,7 @@
     </row>
     <row r="17" spans="4:5">
       <c r="D17" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -6210,7 +6236,7 @@
     </row>
     <row r="18" spans="4:5">
       <c r="D18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -6232,7 +6258,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6249,7 +6275,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6266,14 +6292,14 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="72" spans="1:1">
+    <row r="3" ht="69.6" spans="1:1">
       <c r="A3" s="19" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6292,37 +6318,37 @@
       <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="8" max="8" width="49.1333333333333" customWidth="1"/>
+    <col min="8" max="8" width="49.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -6347,12 +6373,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -6362,12 +6388,12 @@
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -6375,44 +6401,44 @@
         <v>2015</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H33" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="8:10">
       <c r="H37" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="8:10">
       <c r="H40" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="10:10">
       <c r="J44" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
